--- a/biology/Médecine/Stephen_Paget/Stephen_Paget.xlsx
+++ b/biology/Médecine/Stephen_Paget/Stephen_Paget.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stephen Paget (1855-1926) est un chirurgien britannique connu pour avoir proposé sa théorie sur les métastases dite « graine-sol ». Il est le fils de sir James Paget, un éminent chirurgien et anatomo-pathologiste. Le 17 septembre 1885 il épouse Eleanor Mary Burd (1854–1933) dont il a deux filles.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses observations sur les métastases sont publiées en 1889 dans The Lancet. Il soutient que les différents modèles de diffusion du cancer sont dus « à la dépendance de la graine (la cellule cancéreuse) par rapport au sol (l'organe touché par la métastase). » Il a fait ses observations après avoir découvert que le cancer du sein, par exemple, a tendance à se métastaser au niveau du foie, du cerveau et des poumons, tandis que le cancer de la prostate par exemple a tendance à s'étendre seulement aux os. 
 Cependant, dans son article « The Distribution Of Secondary Growths In Cancer Of The Breast », The Lancet, Volume 133, numéro 3421, 23 mars 1889, pages 571-573, il dit nettement : « […] le principal défenseur de cette théorie de la relation entre l'embolie et les tissus qui la reçoivent est Fuchs … ». Il pense à un article de Fuchs, « Das Sarkom des Uvealtractus », Vienne, 1882. Graefe's Archiv für Ophthalmologie, XII, 2, p. 233. 
